--- a/data/markov/Power_Network.xlsx
+++ b/data/markov/Power_Network.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538DB34-B8A0-4067-AE77-373D66DB87FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05FF145-C5DD-4A19-A8D3-C40554502FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Network" sheetId="110" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Power Network'!$Q$8:$Z$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Power Network'!#REF!</definedName>
     <definedName name="businfo">#REF!</definedName>
     <definedName name="demand">#REF!</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
@@ -32,7 +32,7 @@
     <definedName name="impexp">#REF!</definedName>
     <definedName name="indices">#REF!</definedName>
     <definedName name="inflows">#REF!</definedName>
-    <definedName name="network">'Power Network'!$B$6:$O$9</definedName>
+    <definedName name="network">'Power Network'!$B$6:$O$7</definedName>
     <definedName name="param">#REF!</definedName>
     <definedName name="renewable">#REF!</definedName>
     <definedName name="resprofile">#REF!</definedName>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>[MW]</t>
   </si>
@@ -155,9 +155,6 @@
     <t>[0 - 1]</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>Bc</t>
   </si>
   <si>
@@ -179,15 +176,6 @@
     <t>[M€]</t>
   </si>
   <si>
-    <t>Node_1</t>
-  </si>
-  <si>
-    <t>Node_2</t>
-  </si>
-  <si>
-    <t>Node_3</t>
-  </si>
-  <si>
     <t>Power - Network</t>
   </si>
   <si>
@@ -209,19 +197,10 @@
     <t>[Year]</t>
   </si>
   <si>
-    <t>Line 1</t>
-  </si>
-  <si>
-    <t>Line 2</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Technical Representation</t>
-  </si>
-  <si>
-    <t>DC-OPF</t>
   </si>
   <si>
     <t>[DC-OPF, TP, SN]</t>
@@ -234,9 +213,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -336,18 +312,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -411,9 +381,9 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -422,43 +392,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,10 +751,10 @@
     <tabColor rgb="FF008080"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z11"/>
+  <dimension ref="B1:Z9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,8 +790,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
-        <v>16</v>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
@@ -842,43 +802,43 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -933,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>1</v>
@@ -942,163 +902,60 @@
         <v>0</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="11">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="13"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R10" s="8"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Only binary values are possible:_x000a_0 : Out of Service_x000a_1 : In Service_x000a_" sqref="E7:E8" xr:uid="{00000000-0002-0000-1000-000000000000}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1107,12 +964,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,15 +1116,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1294,17 +1159,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/markov/Power_Network.xlsx
+++ b/data/markov/Power_Network.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05FF145-C5DD-4A19-A8D3-C40554502FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC153A5-2E0E-488F-9731-D0169CFD3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Power Network" sheetId="110" r:id="rId1"/>
+    <sheet name="ScenarioA" sheetId="110" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Power Network'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ScenarioA!#REF!</definedName>
     <definedName name="businfo">#REF!</definedName>
     <definedName name="demand">#REF!</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
@@ -32,7 +32,7 @@
     <definedName name="impexp">#REF!</definedName>
     <definedName name="indices">#REF!</definedName>
     <definedName name="inflows">#REF!</definedName>
-    <definedName name="network">'Power Network'!$B$6:$O$7</definedName>
+    <definedName name="network">ScenarioA!$B$6:$O$7</definedName>
     <definedName name="param">#REF!</definedName>
     <definedName name="renewable">#REF!</definedName>
     <definedName name="resprofile">#REF!</definedName>
@@ -68,49 +68,53 @@
     <author>Felix Auer</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5DB565BC-2772-4B01-9193-4832F6248AD8}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B8B1AF4B-1154-4620-96B0-68F547EF4F66}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>From bus i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{50096818-6F93-4435-99EC-A419D31AE284}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>To bus j</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{21B574B7-8525-4390-A52A-8375EB080A19}">
-      <text>
-        <r>
-          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Circuit ID</t>
+          <t>If a line has a value in this column, it is not read in (i.e., does not exist).</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E44C206B-E3A7-48AA-95E4-45F0273D12D8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{97AE3CA4-FAB1-444A-82C9-7EB2784B7FD0}">
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Readable Name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{BC141A06-096A-4123-9876-07E842AFC918}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value specifier in DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2A9E032E-6B88-4481-8D29-9A09195C5EF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -120,16 +124,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{434669B6-0FB6-4DA6-AA6A-09EC6612781B}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{8929A607-FE63-45E0-AF57-FD3DFCDF5CFF}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Source/ Typical Values</t>
+          <t>Details on database behavior</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{FC3D603C-F636-4834-B490-B81448975F84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit or valid values</t>
         </r>
       </text>
     </comment>
@@ -138,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>[MW]</t>
   </si>
@@ -146,74 +165,227 @@
     <t>[p.u.]</t>
   </si>
   <si>
-    <t>InService</t>
-  </si>
-  <si>
     <t>Pmax</t>
   </si>
   <si>
-    <t>[0 - 1]</t>
-  </si>
-  <si>
     <t>Bc</t>
   </si>
   <si>
-    <t>TapAngle</t>
-  </si>
-  <si>
-    <t>TapRatio</t>
-  </si>
-  <si>
     <t>[º]</t>
   </si>
   <si>
-    <t>FixedCost</t>
-  </si>
-  <si>
-    <t>FxChargeRate</t>
-  </si>
-  <si>
     <t>[M€]</t>
   </si>
   <si>
     <t>Power - Network</t>
   </si>
   <si>
-    <t>LineID</t>
-  </si>
-  <si>
-    <t>LIneName</t>
+    <t>[Year]</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Technical Representation</t>
+  </si>
+  <si>
+    <t>[DC-OPF, TP, SN]</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Format:</t>
+  </si>
+  <si>
+    <t>Database ID</t>
+  </si>
+  <si>
+    <t>Commission Year</t>
+  </si>
+  <si>
+    <t>Decommission Year</t>
+  </si>
+  <si>
+    <t>Data Package</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>dataPackage</t>
+  </si>
+  <si>
+    <t>dataSource</t>
+  </si>
+  <si>
+    <t>ID within database</t>
+  </si>
+  <si>
+    <t>Where the data for the entry comes from</t>
+  </si>
+  <si>
+    <t>Filled automatically by database</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
+  </si>
+  <si>
+    <t>[db-key]</t>
+  </si>
+  <si>
+    <t>[Node]</t>
+  </si>
+  <si>
+    <t>[DataPackage]</t>
+  </si>
+  <si>
+    <t>[DataSource]</t>
+  </si>
+  <si>
+    <t>From Node</t>
+  </si>
+  <si>
+    <t>To Node</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>From which node</t>
+  </si>
+  <si>
+    <t>To which node</t>
+  </si>
+  <si>
+    <t>Circuit / Name</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Name of line (or circuit)</t>
+  </si>
+  <si>
+    <t>[Circuit]</t>
+  </si>
+  <si>
+    <t>Tap Angle</t>
+  </si>
+  <si>
+    <t>Tap Ratio</t>
+  </si>
+  <si>
+    <t>pRline</t>
+  </si>
+  <si>
+    <t>Resistance R of line</t>
+  </si>
+  <si>
+    <t>pXline</t>
+  </si>
+  <si>
+    <t>Reactance X of line</t>
+  </si>
+  <si>
+    <t>pBcline</t>
+  </si>
+  <si>
+    <t>Branch charging susceptance</t>
+  </si>
+  <si>
+    <t>pAngle</t>
+  </si>
+  <si>
+    <t>pRatio</t>
+  </si>
+  <si>
+    <t>Transformer angle shift</t>
+  </si>
+  <si>
+    <t>Transformer ratio</t>
+  </si>
+  <si>
+    <t>pPmax</t>
+  </si>
+  <si>
+    <t>Maximum active power transfer</t>
+  </si>
+  <si>
+    <t>pTecRepr</t>
+  </si>
+  <si>
+    <t>Technical representation of line in model</t>
+  </si>
+  <si>
+    <t>Enable Invest</t>
+  </si>
+  <si>
+    <t>Annualized Investment Cost</t>
+  </si>
+  <si>
+    <t>pInvestCost</t>
+  </si>
+  <si>
+    <t>Equivalent per anno investment cost</t>
+  </si>
+  <si>
+    <t>Fixed OM Cost</t>
+  </si>
+  <si>
+    <t>pFOMCost</t>
+  </si>
+  <si>
+    <t>Per anno fixed operating &amp; maintenance cost</t>
+  </si>
+  <si>
+    <t>Excl.</t>
+  </si>
+  <si>
+    <t>pEnableInvest</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is de-commissioned (31.12.xxxx)</t>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether line exists (0) or can be invested in (1) </t>
+  </si>
+  <si>
+    <t>v0.0.4r</t>
+  </si>
+  <si>
+    <t>excl</t>
   </si>
   <si>
     <t>YearCom</t>
   </si>
   <si>
     <t>YearDecom</t>
-  </si>
-  <si>
-    <t>[-]</t>
-  </si>
-  <si>
-    <t>[Year]</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Technical Representation</t>
-  </si>
-  <si>
-    <t>[DC-OPF, TP, SN]</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -254,49 +426,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Aptos"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -304,6 +454,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -311,8 +462,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +525,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -379,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -390,42 +567,55 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
     <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
@@ -751,225 +941,361 @@
     <tabColor rgb="FF008080"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R6" sqref="R6:S6"/>
+      <selection pane="topRight" activeCell="R6" sqref="R6:S6"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6:S6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="8" customWidth="1"/>
-    <col min="6" max="13" width="13.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16" style="5" customWidth="1"/>
-    <col min="17" max="18" width="14" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="209" width="9.140625" style="5"/>
-    <col min="210" max="210" width="9.5703125" style="5" customWidth="1"/>
-    <col min="211" max="211" width="1.5703125" style="5" customWidth="1"/>
-    <col min="212" max="212" width="9.140625" style="5"/>
-    <col min="213" max="213" width="1.5703125" style="5" customWidth="1"/>
-    <col min="214" max="214" width="8.5703125" style="5" customWidth="1"/>
-    <col min="215" max="220" width="9.140625" style="5"/>
-    <col min="221" max="221" width="1.5703125" style="5" customWidth="1"/>
-    <col min="222" max="225" width="9.140625" style="5"/>
-    <col min="226" max="226" width="27.5703125" style="5" customWidth="1"/>
-    <col min="227" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.5703125" style="4" customWidth="1"/>
+    <col min="6" max="11" width="12.85546875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="15" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="21" style="3" customWidth="1"/>
+    <col min="18" max="19" width="25.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="209" width="9.140625" style="3"/>
+    <col min="210" max="210" width="9.5703125" style="3" customWidth="1"/>
+    <col min="211" max="211" width="1.5703125" style="3" customWidth="1"/>
+    <col min="212" max="212" width="9.140625" style="3"/>
+    <col min="213" max="213" width="1.5703125" style="3" customWidth="1"/>
+    <col min="214" max="214" width="8.5703125" style="3" customWidth="1"/>
+    <col min="215" max="220" width="9.140625" style="3"/>
+    <col min="221" max="221" width="1.5703125" style="3" customWidth="1"/>
+    <col min="222" max="225" width="9.140625" style="3"/>
+    <col min="226" max="226" width="27.5703125" style="3" customWidth="1"/>
+    <col min="227" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="L3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R8" s="8"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1115,6 +1441,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1125,22 +1457,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1158,6 +1474,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
